--- a/Data/EC/NIT-9010100452.xlsx
+++ b/Data/EC/NIT-9010100452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0B86C18-F900-40AC-8A06-C9C998A9BA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EFC472-3620-4152-8DF6-96329E293CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7B72AF03-0053-4856-8CD6-EC71CA2FA7B2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CAA0124-D3C3-4094-8B96-033434A38BFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="153">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,127 +65,361 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052074009</t>
+  </si>
+  <si>
+    <t>EMILY JOHANNA TORRES ARROYO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>85479125</t>
+  </si>
+  <si>
+    <t>CRISTIAN ALEJANDRO JIMENEZ OROZCO</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1044924001</t>
+  </si>
+  <si>
+    <t>ADRIANA VANESSA PINEDO TORRES</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>1049827488</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA ORTEGA ARROYO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>1143342856</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA DELGADO DIAZ</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>45546507</t>
+  </si>
+  <si>
+    <t>DELLIS MARIA MERCADO MEDINA</t>
+  </si>
+  <si>
+    <t>45518634</t>
+  </si>
+  <si>
+    <t>DAIRA DEL CARMEN UTRIA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1143352020</t>
+  </si>
+  <si>
+    <t>KATERIN DEL CARMEN TENA FIGUEROA</t>
+  </si>
+  <si>
     <t>1051413835</t>
   </si>
   <si>
     <t>PAOLA ALEXANDRA DAZA PARRA</t>
   </si>
   <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1143342856</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA DELGADO DIAZ</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
     <t>1047498751</t>
   </si>
   <si>
     <t>BETSY LILIANA GARCIA RODRIGUEZ</t>
   </si>
   <si>
-    <t>1143352020</t>
-  </si>
-  <si>
-    <t>KATERIN DEL CARMEN TENA FIGUEROA</t>
-  </si>
-  <si>
-    <t>85479125</t>
-  </si>
-  <si>
-    <t>CRISTIAN ALEJANDRO JIMENEZ OROZCO</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>45546507</t>
-  </si>
-  <si>
-    <t>DELLIS MARIA MERCADO MEDINA</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
+    <t>1143388429</t>
+  </si>
+  <si>
+    <t>KARIME BELTRAN CARDENAS</t>
+  </si>
+  <si>
+    <t>1047432231</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA FRIAS AGAMEZ</t>
   </si>
   <si>
     <t>1108760150</t>
@@ -194,79 +428,16 @@
     <t>EVA SANDRITH PADILLA PEREZ</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
     <t>1128058179</t>
   </si>
   <si>
     <t>JESUS EMILIO BERMEJO MENDOZA</t>
   </si>
   <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
+    <t>1143400282</t>
+  </si>
+  <si>
+    <t>LUISA FERNANDA MURILLO CAMPIÃ?O</t>
   </si>
   <si>
     <t>20329668</t>
@@ -275,145 +446,22 @@
     <t>DARYDA CHAVEZ DIAZ</t>
   </si>
   <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1044924001</t>
-  </si>
-  <si>
-    <t>ADRIANA VANESSA PINEDO TORRES</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
+    <t>1002249406</t>
+  </si>
+  <si>
+    <t>YANNIS STEFANY DE HOYOS DE HOYOS</t>
+  </si>
+  <si>
+    <t>1044918913</t>
+  </si>
+  <si>
+    <t>KETTY LUZ HERRERA HERNANDEZ</t>
   </si>
   <si>
     <t>20425972</t>
   </si>
   <si>
     <t>LUIS ANGEL VALDELAMAR SALGADO</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -457,7 +505,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -827,7 +875,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34A20817-7835-AAD6-6EB6-CC47CB36D8A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC433AD-8D31-F285-818F-3263613D9CCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,32 +1226,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BEB904-8724-44A6-9B37-B73B4DBEDC54}">
-  <dimension ref="B2:J128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E098639E-C620-4BE3-AB86-FFF84BCC32DD}">
+  <dimension ref="B2:J160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1212,7 +1260,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1223,7 +1271,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1234,7 +1282,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1245,10 +1293,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1261,8 +1309,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1277,15 +1325,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>6060377</v>
+        <v>7593711</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1293,17 +1341,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5">
         <v>95</v>
@@ -1313,7 +1361,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1333,16 +1381,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1356,16 +1404,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>984</v>
+        <v>16800</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1376,19 +1424,19 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>22835</v>
+        <v>50400</v>
       </c>
       <c r="G17" s="18">
-        <v>1556941</v>
+        <v>1260000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1399,19 +1447,19 @@
         <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>62278</v>
+        <v>50400</v>
       </c>
       <c r="G18" s="18">
-        <v>1556941</v>
+        <v>1260000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1422,88 +1470,88 @@
         <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>62278</v>
+        <v>28560</v>
       </c>
       <c r="G19" s="18">
-        <v>1556941</v>
+        <v>1260000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>62278</v>
+        <v>2933</v>
       </c>
       <c r="G20" s="18">
-        <v>1556941</v>
+        <v>2200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F21" s="18">
-        <v>62278</v>
+        <v>41600</v>
       </c>
       <c r="G21" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>3284</v>
+        <v>48000</v>
       </c>
       <c r="G22" s="18">
-        <v>820932</v>
+        <v>1200000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1514,260 +1562,260 @@
         <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>3284</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>820932</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>28560</v>
+        <v>48000</v>
       </c>
       <c r="G24" s="18">
-        <v>1260000</v>
+        <v>1200000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F25" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G25" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F26" s="18">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>1260000</v>
+        <v>1200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F27" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F28" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G28" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F29" s="18">
-        <v>50400</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="18">
-        <v>1260000</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G30" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G31" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F32" s="18">
-        <v>62278</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>1556941</v>
+        <v>1200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F33" s="18">
-        <v>29166</v>
+        <v>53974</v>
       </c>
       <c r="G33" s="18">
-        <v>877803</v>
+        <v>1556941</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
         <v>62278</v>
@@ -1779,18 +1827,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>62278</v>
@@ -1802,18 +1850,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>62278</v>
@@ -1825,18 +1873,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>62278</v>
@@ -1848,18 +1896,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>62278</v>
@@ -1871,18 +1919,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
         <v>62278</v>
@@ -1894,18 +1942,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>62278</v>
@@ -1917,18 +1965,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F41" s="18">
         <v>62278</v>
@@ -1940,18 +1988,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F42" s="18">
         <v>62278</v>
@@ -1963,18 +2011,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F43" s="18">
         <v>62278</v>
@@ -1986,18 +2034,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F44" s="18">
         <v>62278</v>
@@ -2009,18 +2057,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F45" s="18">
         <v>62278</v>
@@ -2032,18 +2080,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F46" s="18">
         <v>62278</v>
@@ -2055,18 +2103,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>62278</v>
@@ -2078,18 +2126,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F48" s="18">
         <v>62278</v>
@@ -2101,18 +2149,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F49" s="18">
         <v>62278</v>
@@ -2124,18 +2172,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
         <v>62278</v>
@@ -2147,18 +2195,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
         <v>62278</v>
@@ -2170,41 +2218,41 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F52" s="18">
-        <v>2243</v>
+        <v>62278</v>
       </c>
       <c r="G52" s="18">
-        <v>1682485</v>
+        <v>1556941</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F53" s="18">
         <v>62278</v>
@@ -2216,18 +2264,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F54" s="18">
         <v>62278</v>
@@ -2239,18 +2287,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F55" s="18">
         <v>62278</v>
@@ -2262,18 +2310,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F56" s="18">
         <v>62278</v>
@@ -2285,18 +2333,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F57" s="18">
         <v>62278</v>
@@ -2308,18 +2356,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F58" s="18">
         <v>62278</v>
@@ -2331,18 +2379,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F59" s="18">
         <v>62278</v>
@@ -2354,18 +2402,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18">
         <v>62278</v>
@@ -2377,18 +2425,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F61" s="18">
         <v>62278</v>
@@ -2400,18 +2448,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F62" s="18">
         <v>62278</v>
@@ -2423,18 +2471,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F63" s="18">
         <v>62278</v>
@@ -2446,18 +2494,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F64" s="18">
         <v>62278</v>
@@ -2469,18 +2517,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F65" s="18">
         <v>62278</v>
@@ -2492,41 +2540,41 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F66" s="18">
-        <v>4060</v>
+        <v>62278</v>
       </c>
       <c r="G66" s="18">
-        <v>3045000</v>
+        <v>1556941</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F67" s="18">
         <v>62278</v>
@@ -2538,18 +2586,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F68" s="18">
         <v>62278</v>
@@ -2561,18 +2609,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
         <v>62278</v>
@@ -2584,18 +2632,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F70" s="18">
         <v>62278</v>
@@ -2607,18 +2655,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F71" s="18">
         <v>62278</v>
@@ -2630,18 +2678,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="F72" s="18">
         <v>62278</v>
@@ -2653,18 +2701,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F73" s="18">
         <v>62278</v>
@@ -2676,18 +2724,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F74" s="18">
         <v>62278</v>
@@ -2699,18 +2747,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F75" s="18">
         <v>62278</v>
@@ -2722,18 +2770,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F76" s="18">
         <v>62278</v>
@@ -2745,41 +2793,41 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F77" s="18">
-        <v>14667</v>
+        <v>62278</v>
       </c>
       <c r="G77" s="18">
-        <v>1100000</v>
+        <v>1556941</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F78" s="18">
         <v>62278</v>
@@ -2791,18 +2839,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F79" s="18">
         <v>62278</v>
@@ -2814,18 +2862,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F80" s="18">
         <v>62278</v>
@@ -2837,18 +2885,18 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F81" s="18">
         <v>62278</v>
@@ -2860,41 +2908,41 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F82" s="18">
-        <v>2933</v>
+        <v>62278</v>
       </c>
       <c r="G82" s="18">
-        <v>2050000</v>
+        <v>1556941</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F83" s="18">
         <v>62278</v>
@@ -2906,18 +2954,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F84" s="18">
         <v>62278</v>
@@ -2929,18 +2977,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F85" s="18">
         <v>62278</v>
@@ -2952,18 +3000,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F86" s="18">
         <v>62278</v>
@@ -2975,18 +3023,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F87" s="18">
         <v>62278</v>
@@ -2998,18 +3046,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F88" s="18">
         <v>62278</v>
@@ -3021,18 +3069,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F89" s="18">
         <v>62278</v>
@@ -3044,18 +3092,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="F90" s="18">
         <v>62278</v>
@@ -3067,18 +3115,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F91" s="18">
         <v>62278</v>
@@ -3090,18 +3138,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F92" s="18">
         <v>62278</v>
@@ -3113,18 +3161,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="F93" s="18">
         <v>62278</v>
@@ -3136,18 +3184,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F94" s="18">
         <v>62278</v>
@@ -3159,18 +3207,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="F95" s="18">
         <v>62278</v>
@@ -3182,18 +3230,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F96" s="18">
         <v>62278</v>
@@ -3205,41 +3253,41 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F97" s="18">
-        <v>1733</v>
+        <v>62278</v>
       </c>
       <c r="G97" s="18">
-        <v>1300000</v>
+        <v>1556941</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F98" s="18">
         <v>62278</v>
@@ -3251,18 +3299,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F99" s="18">
         <v>62278</v>
@@ -3274,18 +3322,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F100" s="18">
         <v>62278</v>
@@ -3297,18 +3345,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F101" s="18">
         <v>62278</v>
@@ -3320,18 +3368,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F102" s="18">
         <v>62278</v>
@@ -3343,18 +3391,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F103" s="18">
         <v>62278</v>
@@ -3366,18 +3414,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F104" s="18">
         <v>62278</v>
@@ -3389,18 +3437,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F105" s="18">
         <v>62278</v>
@@ -3412,18 +3460,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F106" s="18">
         <v>62278</v>
@@ -3435,18 +3483,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F107" s="18">
         <v>62278</v>
@@ -3458,18 +3506,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F108" s="18">
         <v>62278</v>
@@ -3481,18 +3529,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F109" s="18">
         <v>62278</v>
@@ -3504,18 +3552,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F110" s="18">
         <v>62278</v>
@@ -3527,18 +3575,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="F111" s="18">
         <v>62278</v>
@@ -3550,18 +3598,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F112" s="18">
         <v>62278</v>
@@ -3573,18 +3621,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F113" s="18">
         <v>62278</v>
@@ -3596,18 +3644,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F114" s="18">
         <v>62278</v>
@@ -3619,18 +3667,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F115" s="18">
         <v>62278</v>
@@ -3642,18 +3690,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F116" s="18">
         <v>62278</v>
@@ -3665,18 +3713,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F117" s="18">
         <v>62278</v>
@@ -3688,18 +3736,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F118" s="18">
         <v>62278</v>
@@ -3711,18 +3759,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F119" s="18">
         <v>62278</v>
@@ -3734,18 +3782,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="F120" s="18">
         <v>62278</v>
@@ -3757,18 +3805,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="F121" s="18">
         <v>62278</v>
@@ -3780,57 +3828,793 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="22" t="s">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="18">
+        <v>62278</v>
+      </c>
+      <c r="G122" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="20"/>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B123" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F123" s="18">
+        <v>62278</v>
+      </c>
+      <c r="G123" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="20"/>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B124" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F124" s="18">
+        <v>62278</v>
+      </c>
+      <c r="G124" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="20"/>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B125" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F125" s="18">
+        <v>62278</v>
+      </c>
+      <c r="G125" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="20"/>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B126" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F126" s="18">
+        <v>62278</v>
+      </c>
+      <c r="G126" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="20"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F127" s="18">
+        <v>22835</v>
+      </c>
+      <c r="G127" s="18">
+        <v>1556941</v>
+      </c>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="20"/>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" s="18">
+        <v>29166</v>
+      </c>
+      <c r="G128" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="20"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B129" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G129" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B130" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F130" s="18">
+        <v>3284</v>
+      </c>
+      <c r="G130" s="18">
+        <v>820932</v>
+      </c>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B131" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F131" s="18">
+        <v>984</v>
+      </c>
+      <c r="G131" s="18">
+        <v>737717</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F132" s="18">
+        <v>3284</v>
+      </c>
+      <c r="G132" s="18">
+        <v>820932</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D133" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F122" s="24">
-        <v>53974</v>
-      </c>
-      <c r="G122" s="24">
-        <v>1556941</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="26"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="32" t="s">
+      <c r="E133" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="18">
+        <v>41600</v>
+      </c>
+      <c r="G133" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F134" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G135" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F136" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G136" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F137" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G137" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="18">
+        <v>88000</v>
+      </c>
+      <c r="G138" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F139" s="18">
+        <v>2243</v>
+      </c>
+      <c r="G139" s="18">
+        <v>1682485</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="18">
+        <v>4060</v>
+      </c>
+      <c r="G140" s="18">
+        <v>3045000</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="18">
+        <v>45066</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="32"/>
-      <c r="H127" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" s="32"/>
-      <c r="H128" s="1" t="s">
+      <c r="E145" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F145" s="18">
+        <v>14667</v>
+      </c>
+      <c r="G145" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
+      <c r="D146" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="18">
+        <v>38134</v>
+      </c>
+      <c r="G146" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F147" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G147" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G148" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G149" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F150" s="18">
+        <v>38134</v>
+      </c>
+      <c r="G150" s="18">
+        <v>1260000</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F151" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1260000</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F152" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>1260000</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" s="18">
+        <v>44000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>1260000</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F154" s="24">
+        <v>1733</v>
+      </c>
+      <c r="G154" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="26"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="C159" s="32"/>
+      <c r="H159" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C160" s="32"/>
+      <c r="H160" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="H160:J160"/>
+    <mergeCell ref="H159:J159"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010100452.xlsx
+++ b/Data/EC/NIT-9010100452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2EFC472-3620-4152-8DF6-96329E293CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4E61D9-733A-4C21-8002-AF6C14AB5E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6CAA0124-D3C3-4094-8B96-033434A38BFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83394634-1393-4881-AE98-0272B351BDDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="137">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,403 +65,355 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1052074009</t>
-  </si>
-  <si>
-    <t>EMILY JOHANNA TORRES ARROYO</t>
+    <t>1143342856</t>
+  </si>
+  <si>
+    <t>ANA CAROLINA DELGADO DIAZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1051413835</t>
+  </si>
+  <si>
+    <t>PAOLA ALEXANDRA DAZA PARRA</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1143352020</t>
+  </si>
+  <si>
+    <t>KATERIN DEL CARMEN TENA FIGUEROA</t>
+  </si>
+  <si>
+    <t>1047498751</t>
+  </si>
+  <si>
+    <t>BETSY LILIANA GARCIA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>85479125</t>
+  </si>
+  <si>
+    <t>CRISTIAN ALEJANDRO JIMENEZ OROZCO</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>45546507</t>
+  </si>
+  <si>
+    <t>DELLIS MARIA MERCADO MEDINA</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1108760150</t>
+  </si>
+  <si>
+    <t>EVA SANDRITH PADILLA PEREZ</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>1128058179</t>
+  </si>
+  <si>
+    <t>JESUS EMILIO BERMEJO MENDOZA</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>20329668</t>
+  </si>
+  <si>
+    <t>DARYDA CHAVEZ DIAZ</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1044924001</t>
+  </si>
+  <si>
+    <t>ADRIANA VANESSA PINEDO TORRES</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
   </si>
   <si>
     <t>2302</t>
   </si>
   <si>
-    <t>85479125</t>
-  </si>
-  <si>
-    <t>CRISTIAN ALEJANDRO JIMENEZ OROZCO</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1044924001</t>
-  </si>
-  <si>
-    <t>ADRIANA VANESSA PINEDO TORRES</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>1049827488</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA ORTEGA ARROYO</t>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>20425972</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL VALDELAMAR SALGADO</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
   </si>
   <si>
     <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>1143342856</t>
-  </si>
-  <si>
-    <t>ANA CAROLINA DELGADO DIAZ</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>45546507</t>
-  </si>
-  <si>
-    <t>DELLIS MARIA MERCADO MEDINA</t>
-  </si>
-  <si>
-    <t>45518634</t>
-  </si>
-  <si>
-    <t>DAIRA DEL CARMEN UTRIA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143352020</t>
-  </si>
-  <si>
-    <t>KATERIN DEL CARMEN TENA FIGUEROA</t>
-  </si>
-  <si>
-    <t>1051413835</t>
-  </si>
-  <si>
-    <t>PAOLA ALEXANDRA DAZA PARRA</t>
-  </si>
-  <si>
-    <t>1047498751</t>
-  </si>
-  <si>
-    <t>BETSY LILIANA GARCIA RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1143388429</t>
-  </si>
-  <si>
-    <t>KARIME BELTRAN CARDENAS</t>
-  </si>
-  <si>
-    <t>1047432231</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA FRIAS AGAMEZ</t>
-  </si>
-  <si>
-    <t>1108760150</t>
-  </si>
-  <si>
-    <t>EVA SANDRITH PADILLA PEREZ</t>
-  </si>
-  <si>
-    <t>1128058179</t>
-  </si>
-  <si>
-    <t>JESUS EMILIO BERMEJO MENDOZA</t>
-  </si>
-  <si>
-    <t>1143400282</t>
-  </si>
-  <si>
-    <t>LUISA FERNANDA MURILLO CAMPIÃ?O</t>
-  </si>
-  <si>
-    <t>20329668</t>
-  </si>
-  <si>
-    <t>DARYDA CHAVEZ DIAZ</t>
-  </si>
-  <si>
-    <t>1002249406</t>
-  </si>
-  <si>
-    <t>YANNIS STEFANY DE HOYOS DE HOYOS</t>
-  </si>
-  <si>
-    <t>1044918913</t>
-  </si>
-  <si>
-    <t>KETTY LUZ HERRERA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>20425972</t>
-  </si>
-  <si>
-    <t>LUIS ANGEL VALDELAMAR SALGADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -505,7 +457,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +512,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -573,9 +527,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -775,23 +727,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,10 +771,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,7 +827,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CC433AD-8D31-F285-818F-3263613D9CCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE54C97E-80CA-9563-4D13-44A60E8B8426}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,32 +1178,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E098639E-C620-4BE3-AB86-FFF84BCC32DD}">
-  <dimension ref="B2:J160"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3CF120-4D4F-4D34-857A-1DA42614628F}">
+  <dimension ref="B2:J128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1260,7 +1212,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1271,7 +1223,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1282,7 +1234,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1293,10 +1245,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1309,8 +1261,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1325,15 +1277,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7593711</v>
+        <v>6060377</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1341,17 +1293,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F13" s="5">
         <v>95</v>
@@ -1361,7 +1313,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1381,16 +1333,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1404,16 +1356,16 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16800</v>
+        <v>22835</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1556941</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,134 +1376,134 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>50400</v>
+        <v>984</v>
       </c>
       <c r="G17" s="18">
-        <v>1260000</v>
+        <v>737717</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>50400</v>
+        <v>62278</v>
       </c>
       <c r="G18" s="18">
-        <v>1260000</v>
+        <v>1556941</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F19" s="18">
-        <v>28560</v>
+        <v>62278</v>
       </c>
       <c r="G19" s="18">
-        <v>1260000</v>
+        <v>1556941</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>2933</v>
+        <v>62278</v>
       </c>
       <c r="G20" s="18">
-        <v>2200000</v>
+        <v>1556941</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>41600</v>
+        <v>62278</v>
       </c>
       <c r="G21" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>48000</v>
+        <v>3284</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>820932</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1562,240 +1514,240 @@
         <v>21</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>48000</v>
+        <v>3284</v>
       </c>
       <c r="G23" s="18">
-        <v>1200000</v>
+        <v>820932</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>48000</v>
+        <v>28560</v>
       </c>
       <c r="G24" s="18">
-        <v>1200000</v>
+        <v>1260000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G25" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>48000</v>
+        <v>50400</v>
       </c>
       <c r="G26" s="18">
-        <v>1200000</v>
+        <v>1260000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G27" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>48000</v>
+        <v>50400</v>
       </c>
       <c r="G28" s="18">
-        <v>1200000</v>
+        <v>1260000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G29" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G30" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G31" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F32" s="18">
-        <v>48000</v>
+        <v>62278</v>
       </c>
       <c r="G32" s="18">
-        <v>1200000</v>
+        <v>1556941</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F33" s="18">
-        <v>53974</v>
+        <v>62278</v>
       </c>
       <c r="G33" s="18">
         <v>1556941</v>
@@ -1804,41 +1756,41 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
-        <v>62278</v>
+        <v>29166</v>
       </c>
       <c r="G34" s="18">
-        <v>1556941</v>
+        <v>877803</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F35" s="18">
         <v>62278</v>
@@ -1850,18 +1802,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="F36" s="18">
         <v>62278</v>
@@ -1873,18 +1825,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F37" s="18">
         <v>62278</v>
@@ -1896,18 +1848,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F38" s="18">
         <v>62278</v>
@@ -1919,18 +1871,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F39" s="18">
         <v>62278</v>
@@ -1942,18 +1894,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F40" s="18">
         <v>62278</v>
@@ -1965,18 +1917,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F41" s="18">
         <v>62278</v>
@@ -1988,18 +1940,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F42" s="18">
         <v>62278</v>
@@ -2011,18 +1963,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F43" s="18">
         <v>62278</v>
@@ -2034,18 +1986,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F44" s="18">
         <v>62278</v>
@@ -2057,18 +2009,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F45" s="18">
         <v>62278</v>
@@ -2080,18 +2032,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>62278</v>
@@ -2103,18 +2055,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>62278</v>
@@ -2126,18 +2078,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>62278</v>
@@ -2149,18 +2101,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>62278</v>
@@ -2172,18 +2124,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>62278</v>
@@ -2195,18 +2147,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>62278</v>
@@ -2218,18 +2170,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>62278</v>
@@ -2241,41 +2193,41 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F53" s="18">
-        <v>62278</v>
+        <v>2243</v>
       </c>
       <c r="G53" s="18">
-        <v>1556941</v>
+        <v>1682485</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
         <v>62278</v>
@@ -2287,18 +2239,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
         <v>62278</v>
@@ -2310,18 +2262,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
         <v>62278</v>
@@ -2333,18 +2285,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
         <v>62278</v>
@@ -2356,18 +2308,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
         <v>62278</v>
@@ -2379,18 +2331,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
         <v>62278</v>
@@ -2402,18 +2354,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
         <v>62278</v>
@@ -2425,18 +2377,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
         <v>62278</v>
@@ -2448,18 +2400,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
         <v>62278</v>
@@ -2471,18 +2423,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
         <v>62278</v>
@@ -2494,18 +2446,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F64" s="18">
         <v>62278</v>
@@ -2517,18 +2469,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F65" s="18">
         <v>62278</v>
@@ -2540,18 +2492,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F66" s="18">
         <v>62278</v>
@@ -2563,41 +2515,41 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
-        <v>62278</v>
+        <v>4060</v>
       </c>
       <c r="G67" s="18">
-        <v>1556941</v>
+        <v>3045000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F68" s="18">
         <v>62278</v>
@@ -2609,18 +2561,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F69" s="18">
         <v>62278</v>
@@ -2632,18 +2584,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F70" s="18">
         <v>62278</v>
@@ -2655,18 +2607,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F71" s="18">
         <v>62278</v>
@@ -2678,18 +2630,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="F72" s="18">
         <v>62278</v>
@@ -2701,18 +2653,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="F73" s="18">
         <v>62278</v>
@@ -2724,18 +2676,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F74" s="18">
         <v>62278</v>
@@ -2747,18 +2699,18 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F75" s="18">
         <v>62278</v>
@@ -2770,18 +2722,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F76" s="18">
         <v>62278</v>
@@ -2793,41 +2745,41 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F77" s="18">
-        <v>62278</v>
+        <v>14667</v>
       </c>
       <c r="G77" s="18">
-        <v>1556941</v>
+        <v>1100000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F78" s="18">
         <v>62278</v>
@@ -2839,18 +2791,18 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="F79" s="18">
         <v>62278</v>
@@ -2862,18 +2814,18 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F80" s="18">
         <v>62278</v>
@@ -2885,41 +2837,41 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F81" s="18">
-        <v>62278</v>
+        <v>2933</v>
       </c>
       <c r="G81" s="18">
-        <v>1556941</v>
+        <v>2200000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="F82" s="18">
         <v>62278</v>
@@ -2931,18 +2883,18 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="F83" s="18">
         <v>62278</v>
@@ -2954,18 +2906,18 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F84" s="18">
         <v>62278</v>
@@ -2977,18 +2929,18 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F85" s="18">
         <v>62278</v>
@@ -3000,18 +2952,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="F86" s="18">
         <v>62278</v>
@@ -3023,18 +2975,18 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="F87" s="18">
         <v>62278</v>
@@ -3046,18 +2998,18 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F88" s="18">
         <v>62278</v>
@@ -3069,18 +3021,18 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F89" s="18">
         <v>62278</v>
@@ -3092,18 +3044,18 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F90" s="18">
         <v>62278</v>
@@ -3115,18 +3067,18 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F91" s="18">
         <v>62278</v>
@@ -3138,18 +3090,18 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F92" s="18">
         <v>62278</v>
@@ -3161,18 +3113,18 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F93" s="18">
         <v>62278</v>
@@ -3184,18 +3136,18 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F94" s="18">
         <v>62278</v>
@@ -3207,18 +3159,18 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F95" s="18">
         <v>62278</v>
@@ -3230,18 +3182,18 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F96" s="18">
         <v>62278</v>
@@ -3253,41 +3205,41 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F97" s="18">
-        <v>62278</v>
+        <v>1733</v>
       </c>
       <c r="G97" s="18">
-        <v>1556941</v>
+        <v>1300000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F98" s="18">
         <v>62278</v>
@@ -3299,18 +3251,18 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F99" s="18">
         <v>62278</v>
@@ -3322,18 +3274,18 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F100" s="18">
         <v>62278</v>
@@ -3345,18 +3297,18 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F101" s="18">
         <v>62278</v>
@@ -3368,18 +3320,18 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F102" s="18">
         <v>62278</v>
@@ -3391,18 +3343,18 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F103" s="18">
         <v>62278</v>
@@ -3414,18 +3366,18 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F104" s="18">
         <v>62278</v>
@@ -3437,18 +3389,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F105" s="18">
         <v>62278</v>
@@ -3460,18 +3412,18 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F106" s="18">
         <v>62278</v>
@@ -3483,18 +3435,18 @@
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F107" s="18">
         <v>62278</v>
@@ -3506,18 +3458,18 @@
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F108" s="18">
         <v>62278</v>
@@ -3529,18 +3481,18 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F109" s="18">
         <v>62278</v>
@@ -3552,18 +3504,18 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F110" s="18">
         <v>62278</v>
@@ -3575,18 +3527,18 @@
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F111" s="18">
         <v>62278</v>
@@ -3598,18 +3550,18 @@
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="F112" s="18">
         <v>62278</v>
@@ -3621,18 +3573,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F113" s="18">
         <v>62278</v>
@@ -3644,18 +3596,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="F114" s="18">
         <v>62278</v>
@@ -3667,18 +3619,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="F115" s="18">
         <v>62278</v>
@@ -3690,18 +3642,18 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F116" s="18">
         <v>62278</v>
@@ -3713,18 +3665,18 @@
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F117" s="18">
         <v>62278</v>
@@ -3736,18 +3688,18 @@
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F118" s="18">
         <v>62278</v>
@@ -3759,18 +3711,18 @@
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F119" s="18">
         <v>62278</v>
@@ -3782,18 +3734,18 @@
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F120" s="18">
         <v>62278</v>
@@ -3805,18 +3757,18 @@
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="F121" s="18">
         <v>62278</v>
@@ -3828,793 +3780,57 @@
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B122" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G122" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B123" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D123" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F123" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G123" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="20"/>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B124" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F124" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G124" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="20"/>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B125" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F125" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G125" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="20"/>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B126" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F126" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G126" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="20"/>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B127" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F127" s="18">
-        <v>22835</v>
-      </c>
-      <c r="G127" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="20"/>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B128" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D128" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="F128" s="18">
-        <v>29166</v>
-      </c>
-      <c r="G128" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="20"/>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B129" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C129" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D129" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E129" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F129" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G129" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="20"/>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B130" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D130" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F130" s="18">
-        <v>3284</v>
-      </c>
-      <c r="G130" s="18">
-        <v>820932</v>
-      </c>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="20"/>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="E131" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F131" s="18">
-        <v>984</v>
-      </c>
-      <c r="G131" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="20"/>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B132" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="F132" s="18">
-        <v>3284</v>
-      </c>
-      <c r="G132" s="18">
-        <v>820932</v>
-      </c>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="20"/>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B133" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D133" s="17" t="s">
+    <row r="122" spans="2:10">
+      <c r="B122" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="E133" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F133" s="18">
-        <v>41600</v>
-      </c>
-      <c r="G133" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="20"/>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B134" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E134" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F134" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G134" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="20"/>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B135" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D135" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E135" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F135" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G135" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="20"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="E136" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F136" s="18">
-        <v>48000</v>
-      </c>
-      <c r="G136" s="18">
-        <v>1200000</v>
-      </c>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="20"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F137" s="18">
-        <v>88000</v>
-      </c>
-      <c r="G137" s="18">
-        <v>2200000</v>
-      </c>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="20"/>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B138" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="E138" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F138" s="18">
-        <v>88000</v>
-      </c>
-      <c r="G138" s="18">
-        <v>2200000</v>
-      </c>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="20"/>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F139" s="18">
-        <v>2243</v>
-      </c>
-      <c r="G139" s="18">
-        <v>1682485</v>
-      </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F140" s="18">
-        <v>4060</v>
-      </c>
-      <c r="G140" s="18">
-        <v>3045000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F141" s="18">
-        <v>45066</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F142" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F144" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
+      <c r="F122" s="24">
+        <v>53974</v>
+      </c>
+      <c r="G122" s="24">
+        <v>1556941</v>
+      </c>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="26"/>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="B127" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C127" s="32"/>
+      <c r="H127" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="B128" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="D145" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F145" s="18">
-        <v>14667</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1100000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
+      <c r="C128" s="32"/>
+      <c r="H128" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D146" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F146" s="18">
-        <v>38134</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F149" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F150" s="18">
-        <v>38134</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1260000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F151" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1260000</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F152" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1260000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F153" s="18">
-        <v>44000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1260000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="E154" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F154" s="24">
-        <v>1733</v>
-      </c>
-      <c r="G154" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="26"/>
-    </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B159" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C159" s="32"/>
-      <c r="H159" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B160" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C160" s="32"/>
-      <c r="H160" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="H160:J160"/>
-    <mergeCell ref="H159:J159"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="H127:J127"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010100452.xlsx
+++ b/Data/EC/NIT-9010100452.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4E61D9-733A-4C21-8002-AF6C14AB5E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FAFEB19-ED2B-4A90-9B04-AD2AF739ABEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{83394634-1393-4881-AE98-0272B351BDDD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{34731C06-B3BB-4C01-8DA8-B51604BD4F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,9 +512,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -527,7 +525,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -721,29 +721,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,19 +762,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,7 +833,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE54C97E-80CA-9563-4D13-44A60E8B8426}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2C6B32-478F-F125-0E42-976E32827D84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,80 +1184,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3CF120-4D4F-4D34-857A-1DA42614628F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1205B96-47E9-47F9-AF2F-87513DFDE28C}">
   <dimension ref="B2:J128"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1261,13 +1267,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9010100452</v>
       </c>
@@ -1277,13 +1283,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>6060377</v>
       </c>
@@ -1293,8 +1299,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>129</v>
       </c>
@@ -1313,7 +1319,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1342,7 +1348,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1352,20 +1358,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>22835</v>
       </c>
-      <c r="G16" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="G16" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1375,20 +1381,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>984</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>737717</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1398,20 +1404,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="F18" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1421,20 +1427,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="F19" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1444,20 +1450,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="F20" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1467,20 +1473,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="F21" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1490,20 +1496,20 @@
       <c r="D22" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>3284</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>820932</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1513,20 +1519,20 @@
       <c r="D23" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>3284</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>820932</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1536,20 +1542,20 @@
       <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>28560</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1260000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1559,20 +1565,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="F25" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1582,20 +1588,20 @@
       <c r="D26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>50400</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1260000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1605,20 +1611,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="F27" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1628,20 +1634,20 @@
       <c r="D28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>50400</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1260000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1651,20 +1657,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="F29" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1674,20 +1680,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G30" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="F30" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1697,20 +1703,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G31" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="F31" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1720,20 +1726,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="F32" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1743,20 +1749,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F33" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="F33" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G33" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1766,20 +1772,20 @@
       <c r="D34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>29166</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>877803</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1789,20 +1795,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="F35" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1812,20 +1818,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="F36" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1835,20 +1841,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="F37" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1858,20 +1864,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="F38" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1881,20 +1887,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="F39" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G39" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1904,20 +1910,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="F40" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G40" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1927,20 +1933,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="F41" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G41" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1950,20 +1956,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F42" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="F42" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G42" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1973,20 +1979,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F43" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G43" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="F43" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G43" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1996,20 +2002,20 @@
       <c r="D44" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F44" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G44" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="F44" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G44" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -2019,20 +2025,20 @@
       <c r="D45" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G45" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G45" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -2042,20 +2048,20 @@
       <c r="D46" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G46" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G46" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -2065,20 +2071,20 @@
       <c r="D47" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G47" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G47" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2088,20 +2094,20 @@
       <c r="D48" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G48" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G48" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2111,20 +2117,20 @@
       <c r="D49" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G49" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2134,20 +2140,20 @@
       <c r="D50" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G50" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2157,20 +2163,20 @@
       <c r="D51" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G51" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2180,20 +2186,20 @@
       <c r="D52" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G52" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2203,20 +2209,20 @@
       <c r="D53" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="18">
+      <c r="F53" s="19">
         <v>2243</v>
       </c>
-      <c r="G53" s="18">
+      <c r="G53" s="19">
         <v>1682485</v>
       </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2226,20 +2232,20 @@
       <c r="D54" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F54" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G54" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G54" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2249,20 +2255,20 @@
       <c r="D55" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G55" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G55" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2272,20 +2278,20 @@
       <c r="D56" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F56" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G56" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G56" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2295,20 +2301,20 @@
       <c r="D57" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F57" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G57" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G57" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2318,20 +2324,20 @@
       <c r="D58" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G58" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2341,20 +2347,20 @@
       <c r="D59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F59" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G59" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2364,20 +2370,20 @@
       <c r="D60" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F60" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G60" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2387,20 +2393,20 @@
       <c r="D61" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F61" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G61" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2410,20 +2416,20 @@
       <c r="D62" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F62" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G62" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2433,20 +2439,20 @@
       <c r="D63" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F63" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G63" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G63" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2456,20 +2462,20 @@
       <c r="D64" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G64" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G64" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2479,20 +2485,20 @@
       <c r="D65" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F65" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G65" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G65" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2502,20 +2508,20 @@
       <c r="D66" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F66" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G66" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G66" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2525,20 +2531,20 @@
       <c r="D67" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="19">
         <v>4060</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="19">
         <v>3045000</v>
       </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2548,20 +2554,20 @@
       <c r="D68" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G68" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2571,20 +2577,20 @@
       <c r="D69" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F69" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G69" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G69" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2594,20 +2600,20 @@
       <c r="D70" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G70" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G70" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2617,20 +2623,20 @@
       <c r="D71" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F71" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G71" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2640,20 +2646,20 @@
       <c r="D72" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G72" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2663,20 +2669,20 @@
       <c r="D73" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G73" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G73" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2686,20 +2692,20 @@
       <c r="D74" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F74" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G74" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G74" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2709,20 +2715,20 @@
       <c r="D75" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F75" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G75" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="F75" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G75" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2732,20 +2738,20 @@
       <c r="D76" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F76" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G76" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G76" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2755,20 +2761,20 @@
       <c r="D77" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="19">
         <v>14667</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="19">
         <v>1100000</v>
       </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2778,20 +2784,20 @@
       <c r="D78" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F78" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G78" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G78" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2801,20 +2807,20 @@
       <c r="D79" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G79" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G79" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2824,20 +2830,20 @@
       <c r="D80" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F80" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G80" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="F80" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G80" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2847,20 +2853,20 @@
       <c r="D81" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="19">
         <v>2933</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="19">
         <v>2200000</v>
       </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2870,20 +2876,20 @@
       <c r="D82" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F82" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G82" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="F82" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G82" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2893,20 +2899,20 @@
       <c r="D83" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F83" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G83" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="F83" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2916,20 +2922,20 @@
       <c r="D84" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G84" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="F84" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G84" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2939,20 +2945,20 @@
       <c r="D85" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G85" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="F85" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G85" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2962,20 +2968,20 @@
       <c r="D86" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F86" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G86" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="F86" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G86" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2985,20 +2991,20 @@
       <c r="D87" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F87" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="F87" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G87" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -3008,20 +3014,20 @@
       <c r="D88" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F88" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F88" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G88" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -3031,20 +3037,20 @@
       <c r="D89" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="F89" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G89" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -3054,20 +3060,20 @@
       <c r="D90" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F90" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="F90" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G90" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3077,20 +3083,20 @@
       <c r="D91" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F91" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="F91" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G91" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3100,20 +3106,20 @@
       <c r="D92" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F92" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G92" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="F92" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G92" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3123,20 +3129,20 @@
       <c r="D93" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F93" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G93" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="F93" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G93" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3146,20 +3152,20 @@
       <c r="D94" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F94" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G94" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="F94" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G94" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3169,20 +3175,20 @@
       <c r="D95" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F95" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G95" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="F95" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G95" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3192,20 +3198,20 @@
       <c r="D96" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F96" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G96" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="F96" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G96" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3215,20 +3221,20 @@
       <c r="D97" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="19">
         <v>1733</v>
       </c>
-      <c r="G97" s="18">
+      <c r="G97" s="19">
         <v>1300000</v>
       </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3238,20 +3244,20 @@
       <c r="D98" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F98" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G98" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="F98" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3261,20 +3267,20 @@
       <c r="D99" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F99" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G99" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="F99" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G99" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3284,20 +3290,20 @@
       <c r="D100" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F100" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G100" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="F100" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G100" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3307,20 +3313,20 @@
       <c r="D101" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="F101" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G101" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10">
+      <c r="F101" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G101" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3330,20 +3336,20 @@
       <c r="D102" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G102" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10">
+      <c r="F102" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G102" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
@@ -3353,20 +3359,20 @@
       <c r="D103" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E103" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="F103" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G103" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="20"/>
-    </row>
-    <row r="104" spans="2:10">
+      <c r="F103" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G103" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H103" s="20"/>
+      <c r="I103" s="20"/>
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
@@ -3376,20 +3382,20 @@
       <c r="D104" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E104" s="16" t="s">
+      <c r="E104" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F104" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G104" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="20"/>
-    </row>
-    <row r="105" spans="2:10">
+      <c r="F104" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G104" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H104" s="20"/>
+      <c r="I104" s="20"/>
+      <c r="J104" s="21"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
@@ -3399,20 +3405,20 @@
       <c r="D105" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E105" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="F105" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G105" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="20"/>
-    </row>
-    <row r="106" spans="2:10">
+      <c r="F105" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H105" s="20"/>
+      <c r="I105" s="20"/>
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
@@ -3422,20 +3428,20 @@
       <c r="D106" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E106" s="16" t="s">
+      <c r="E106" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="F106" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G106" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="2:10">
+      <c r="F106" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G106" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H106" s="20"/>
+      <c r="I106" s="20"/>
+      <c r="J106" s="21"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
@@ -3445,20 +3451,20 @@
       <c r="D107" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E107" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="F107" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G107" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="20"/>
-    </row>
-    <row r="108" spans="2:10">
+      <c r="F107" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G107" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H107" s="20"/>
+      <c r="I107" s="20"/>
+      <c r="J107" s="21"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
@@ -3468,20 +3474,20 @@
       <c r="D108" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E108" s="16" t="s">
+      <c r="E108" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F108" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G108" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="20"/>
-    </row>
-    <row r="109" spans="2:10">
+      <c r="F108" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H108" s="20"/>
+      <c r="I108" s="20"/>
+      <c r="J108" s="21"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
@@ -3491,20 +3497,20 @@
       <c r="D109" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E109" s="16" t="s">
+      <c r="E109" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F109" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G109" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="20"/>
-    </row>
-    <row r="110" spans="2:10">
+      <c r="F109" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H109" s="20"/>
+      <c r="I109" s="20"/>
+      <c r="J109" s="21"/>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
@@ -3514,20 +3520,20 @@
       <c r="D110" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E110" s="16" t="s">
+      <c r="E110" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="F110" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G110" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="20"/>
-    </row>
-    <row r="111" spans="2:10">
+      <c r="F110" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G110" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H110" s="20"/>
+      <c r="I110" s="20"/>
+      <c r="J110" s="21"/>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
@@ -3537,20 +3543,20 @@
       <c r="D111" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E111" s="16" t="s">
+      <c r="E111" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="F111" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G111" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="20"/>
-    </row>
-    <row r="112" spans="2:10">
+      <c r="F111" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G111" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H111" s="20"/>
+      <c r="I111" s="20"/>
+      <c r="J111" s="21"/>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
@@ -3560,20 +3566,20 @@
       <c r="D112" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="16" t="s">
+      <c r="E112" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F112" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G112" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="2:10">
+      <c r="F112" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G112" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H112" s="20"/>
+      <c r="I112" s="20"/>
+      <c r="J112" s="21"/>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
@@ -3583,20 +3589,20 @@
       <c r="D113" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="F113" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G113" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="20"/>
-    </row>
-    <row r="114" spans="2:10">
+      <c r="F113" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G113" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
@@ -3606,20 +3612,20 @@
       <c r="D114" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E114" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F114" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G114" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="20"/>
-    </row>
-    <row r="115" spans="2:10">
+      <c r="F114" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G114" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H114" s="20"/>
+      <c r="I114" s="20"/>
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
@@ -3629,20 +3635,20 @@
       <c r="D115" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E115" s="16" t="s">
+      <c r="E115" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F115" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G115" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-    </row>
-    <row r="116" spans="2:10">
+      <c r="F115" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G115" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H115" s="20"/>
+      <c r="I115" s="20"/>
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
@@ -3652,20 +3658,20 @@
       <c r="D116" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E116" s="16" t="s">
+      <c r="E116" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F116" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G116" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="20"/>
-    </row>
-    <row r="117" spans="2:10">
+      <c r="F116" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G116" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H116" s="20"/>
+      <c r="I116" s="20"/>
+      <c r="J116" s="21"/>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
@@ -3675,20 +3681,20 @@
       <c r="D117" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E117" s="16" t="s">
+      <c r="E117" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="F117" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G117" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="2:10">
+      <c r="F117" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G117" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H117" s="20"/>
+      <c r="I117" s="20"/>
+      <c r="J117" s="21"/>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
@@ -3698,20 +3704,20 @@
       <c r="D118" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E118" s="16" t="s">
+      <c r="E118" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F118" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G118" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="2:10">
+      <c r="F118" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H118" s="20"/>
+      <c r="I118" s="20"/>
+      <c r="J118" s="21"/>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
@@ -3721,20 +3727,20 @@
       <c r="D119" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F119" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G119" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="20"/>
-    </row>
-    <row r="120" spans="2:10">
+      <c r="F119" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G119" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H119" s="20"/>
+      <c r="I119" s="20"/>
+      <c r="J119" s="21"/>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
@@ -3744,20 +3750,20 @@
       <c r="D120" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E120" s="16" t="s">
+      <c r="E120" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F120" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G120" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="20"/>
-    </row>
-    <row r="121" spans="2:10">
+      <c r="F120" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G120" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H120" s="20"/>
+      <c r="I120" s="20"/>
+      <c r="J120" s="21"/>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
@@ -3767,58 +3773,58 @@
       <c r="D121" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E121" s="16" t="s">
+      <c r="E121" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F121" s="18">
-        <v>62278</v>
-      </c>
-      <c r="G121" s="18">
-        <v>1556941</v>
-      </c>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="20"/>
-    </row>
-    <row r="122" spans="2:10">
-      <c r="B122" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E122" s="22" t="s">
+      <c r="F121" s="19">
+        <v>62278</v>
+      </c>
+      <c r="G121" s="19">
+        <v>1556941</v>
+      </c>
+      <c r="H121" s="20"/>
+      <c r="I121" s="20"/>
+      <c r="J121" s="21"/>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B122" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F122" s="24">
+      <c r="F122" s="26">
         <v>53974</v>
       </c>
-      <c r="G122" s="24">
-        <v>1556941</v>
-      </c>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="26"/>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="B127" s="32" t="s">
+      <c r="G122" s="26">
+        <v>1556941</v>
+      </c>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="28"/>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B127" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="C127" s="32"/>
+      <c r="C127" s="34"/>
       <c r="H127" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" spans="2:10">
-      <c r="B128" s="32" t="s">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B128" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="32"/>
+      <c r="C128" s="34"/>
       <c r="H128" s="1" t="s">
         <v>136</v>
       </c>
